--- a/src/main/resources/template/excel/export/GoodsPriceAdjustForm.xlsx
+++ b/src/main/resources/template/excel/export/GoodsPriceAdjustForm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="27540" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>zhangq</author>
     <author>作者</author>
   </authors>
   <commentList>
@@ -28,20 +29,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="O2")</t>
+          <t>jx:area(lastCell="O3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -49,16 +41,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="O2")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="O3")</t>
         </r>
       </text>
     </comment>
@@ -67,7 +50,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t>调价单</t>
+  </si>
   <si>
     <t>货号</t>
   </si>
@@ -164,12 +150,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +164,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -188,6 +224,58 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,15 +289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,22 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,75 +321,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,127 +337,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,31 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,24 +523,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -525,37 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +563,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,8 +605,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,11 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,138 +667,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1116,119 +1153,137 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="10" width="22.625" customWidth="1"/>
-    <col min="11" max="14" width="19.375" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customHeight="1" spans="1:15">
-      <c r="A1" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" ht="16.5" customHeight="1" spans="1:15">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N3" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/main/resources/template/excel/export/GoodsPriceAdjustForm.xlsx
+++ b/src/main/resources/template/excel/export/GoodsPriceAdjustForm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="O4")</t>
+          <t>jx:area(lastCell="O3")</t>
         </r>
       </text>
     </comment>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="O3")</t>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>调价单</t>
   </si>
@@ -147,18 +149,12 @@
   </si>
   <si>
     <t>${obj.newVipPrice}</t>
-  </si>
-  <si>
-    <t>总计：</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,6 +168,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -179,22 +176,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -240,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,83 +250,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,7 +275,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -380,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -751,25 +681,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>

--- a/src/main/resources/template/excel/export/GoodsPriceAdjustForm.xlsx
+++ b/src/main/resources/template/excel/export/GoodsPriceAdjustForm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="O3")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="O3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>调价单</t>
   </si>
@@ -149,6 +149,22 @@
   </si>
   <si>
     <t>${obj.newVipPrice}</t>
+  </si>
+  <si>
+    <t>原毛利率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新毛利率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.oldSaleRate}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.newSaleRate}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -554,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,10 +581,10 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="15" width="12.625" customWidth="1"/>
+    <col min="4" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -586,8 +602,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,28 +631,34 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -660,30 +684,36 @@
         <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/GoodsPriceAdjustForm.xlsx
+++ b/src/main/resources/template/excel/export/GoodsPriceAdjustForm.xlsx
@@ -159,11 +159,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.oldSaleRate}</t>
+    <t>${obj.oldSaleRateStr}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.newSaleRate}</t>
+    <t>${obj.newSaleRateStr}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
